--- a/zun_list.xlsx
+++ b/zun_list.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\KarutaPrac\KarutaPrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662BBBB8-1DD4-424B-B5BA-F86124F91B87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7662F799-5554-4224-B55D-3D2C88617378}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zun_list" sheetId="1" r:id="rId1"/>
@@ -1225,9 +1225,6 @@
     <t>丁礼田舞&amp;尔子田里乃</t>
   </si>
   <si>
-    <t>satono&amp;mai.png</t>
-  </si>
-  <si>
     <t>被秘匿的四个季节</t>
   </si>
   <si>
@@ -1379,12 +1376,16 @@
   </si>
   <si>
     <t>無間の鐘　～ Infinite Nightmare</t>
+  </si>
+  <si>
+    <t>satono_and_mai.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2329,10 +2330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4725,7 +4728,7 @@
         <v>497463992</v>
       </c>
       <c r="G104" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
@@ -4736,19 +4739,19 @@
         <v>381</v>
       </c>
       <c r="C105" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" t="s">
         <v>402</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>403</v>
-      </c>
-      <c r="E105" t="s">
-        <v>404</v>
       </c>
       <c r="F105">
         <v>497463994</v>
       </c>
       <c r="G105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
@@ -4759,295 +4762,295 @@
         <v>381</v>
       </c>
       <c r="C106" t="s">
+        <v>405</v>
+      </c>
+      <c r="D106" t="s">
         <v>406</v>
       </c>
-      <c r="D106" t="s">
-        <v>407</v>
-      </c>
       <c r="E106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F106">
         <v>497463996</v>
       </c>
       <c r="G106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
+        <v>408</v>
+      </c>
+      <c r="B107" t="s">
         <v>409</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>410</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>411</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>412</v>
-      </c>
-      <c r="E107" t="s">
-        <v>413</v>
       </c>
       <c r="F107">
         <v>1381562764</v>
       </c>
       <c r="G107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
+        <v>408</v>
+      </c>
+      <c r="B108" t="s">
         <v>409</v>
       </c>
-      <c r="B108" t="s">
-        <v>410</v>
-      </c>
       <c r="C108" t="s">
+        <v>414</v>
+      </c>
+      <c r="D108" t="s">
         <v>415</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>416</v>
-      </c>
-      <c r="E108" t="s">
-        <v>417</v>
       </c>
       <c r="F108">
         <v>1381564337</v>
       </c>
       <c r="G108" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" t="s">
         <v>409</v>
       </c>
-      <c r="B109" t="s">
-        <v>410</v>
-      </c>
       <c r="C109" t="s">
+        <v>418</v>
+      </c>
+      <c r="D109" t="s">
         <v>419</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>420</v>
-      </c>
-      <c r="E109" t="s">
-        <v>421</v>
       </c>
       <c r="F109">
         <v>1381562765</v>
       </c>
       <c r="G109" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
+        <v>408</v>
+      </c>
+      <c r="B110" t="s">
         <v>409</v>
       </c>
-      <c r="B110" t="s">
-        <v>410</v>
-      </c>
       <c r="C110" t="s">
+        <v>422</v>
+      </c>
+      <c r="D110" t="s">
         <v>423</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>424</v>
-      </c>
-      <c r="E110" t="s">
-        <v>425</v>
       </c>
       <c r="F110">
         <v>1384324154</v>
       </c>
       <c r="G110" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
+        <v>408</v>
+      </c>
+      <c r="B111" t="s">
         <v>409</v>
       </c>
-      <c r="B111" t="s">
-        <v>410</v>
-      </c>
       <c r="C111" t="s">
+        <v>426</v>
+      </c>
+      <c r="D111" t="s">
         <v>427</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>428</v>
-      </c>
-      <c r="E111" t="s">
-        <v>429</v>
       </c>
       <c r="F111">
         <v>1384324156</v>
       </c>
       <c r="G111" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" t="s">
         <v>409</v>
       </c>
-      <c r="B112" t="s">
-        <v>410</v>
-      </c>
       <c r="C112" t="s">
+        <v>430</v>
+      </c>
+      <c r="D112" t="s">
         <v>431</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>432</v>
-      </c>
-      <c r="E112" t="s">
-        <v>433</v>
       </c>
       <c r="F112">
         <v>1384318412</v>
       </c>
       <c r="G112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" t="s">
         <v>409</v>
       </c>
-      <c r="B113" t="s">
-        <v>410</v>
-      </c>
       <c r="C113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D113" t="s">
         <v>435</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>436</v>
-      </c>
-      <c r="E113" t="s">
-        <v>437</v>
       </c>
       <c r="F113">
         <v>1384324244</v>
       </c>
       <c r="G113" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>438</v>
+      </c>
+      <c r="B114" t="s">
         <v>439</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>440</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>441</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>442</v>
-      </c>
-      <c r="E114" t="s">
-        <v>443</v>
       </c>
       <c r="F114">
         <v>29715584</v>
       </c>
       <c r="G114" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
+        <v>438</v>
+      </c>
+      <c r="B115" t="s">
         <v>439</v>
       </c>
-      <c r="B115" t="s">
-        <v>440</v>
-      </c>
       <c r="C115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" t="s">
         <v>445</v>
       </c>
-      <c r="D115" t="s">
-        <v>446</v>
-      </c>
       <c r="E115" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F115">
         <v>29715585</v>
       </c>
       <c r="G115" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" t="s">
         <v>439</v>
       </c>
-      <c r="B116" t="s">
-        <v>440</v>
-      </c>
       <c r="C116" t="s">
+        <v>446</v>
+      </c>
+      <c r="D116" t="s">
         <v>447</v>
       </c>
-      <c r="D116" t="s">
-        <v>448</v>
-      </c>
       <c r="E116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F116">
         <v>29715586</v>
       </c>
       <c r="G116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
+        <v>438</v>
+      </c>
+      <c r="B117" t="s">
         <v>439</v>
       </c>
-      <c r="B117" t="s">
-        <v>440</v>
-      </c>
       <c r="C117" t="s">
+        <v>448</v>
+      </c>
+      <c r="D117" t="s">
         <v>449</v>
       </c>
-      <c r="D117" t="s">
-        <v>450</v>
-      </c>
       <c r="E117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F117">
         <v>29715587</v>
       </c>
       <c r="G117" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>438</v>
+      </c>
+      <c r="B118" t="s">
         <v>439</v>
       </c>
-      <c r="B118" t="s">
-        <v>440</v>
-      </c>
       <c r="C118" t="s">
+        <v>450</v>
+      </c>
+      <c r="D118" t="s">
         <v>451</v>
       </c>
-      <c r="D118" t="s">
-        <v>452</v>
-      </c>
       <c r="E118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F118">
         <v>29715588</v>
       </c>
       <c r="G118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
